--- a/input/Расписание №11 Form.xlsx
+++ b/input/Расписание №11 Form.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Mission\5.Programming\pythonProject\University-Schedule-Planner\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69D189A2-A799-4713-B4F5-318EA8D5789B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BC796C4-8910-4BB1-9059-09620AB1342A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3840" yWindow="2124" windowWidth="19932" windowHeight="15156" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="45552" yWindow="6972" windowWidth="14532" windowHeight="7548" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="form" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="17">
   <si>
     <t xml:space="preserve"> #</t>
   </si>
@@ -512,7 +512,7 @@
   <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -565,8 +565,8 @@
       <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="B2" s="3">
-        <v>1.2</v>
+      <c r="B2" s="3" t="s">
+        <v>14</v>
       </c>
       <c r="C2" s="4">
         <v>1</v>
@@ -589,16 +589,16 @@
       <c r="I2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="J2" s="4" t="s">
-        <v>14</v>
+      <c r="J2" s="4">
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="18" x14ac:dyDescent="0.35">
       <c r="A3" s="8">
         <v>2</v>
       </c>
-      <c r="B3" s="9">
-        <v>1.2</v>
+      <c r="B3" s="9" t="s">
+        <v>14</v>
       </c>
       <c r="C3" s="10">
         <v>1</v>
